--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/10_Artvin_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/10_Artvin_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A249010-BA1C-4F37-963F-187E8B64A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7B961B-A503-4A7B-886A-CCE0A7F4097C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="664" xr2:uid="{8C16630E-C096-4895-A8A7-CE7C1BD13CE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{628ECA9D-A791-4C38-80AF-39F31EE7DBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -994,15 +994,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E0426DE6-4959-43DD-8E2E-9DFA8F7AB926}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{22DA2625-2450-4671-927A-58125F97AC0E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{09750902-218E-4333-8827-263776AE4731}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D2F64804-1B56-4C18-BF09-58D5B11B0561}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{2ED87C9F-031D-4838-B24E-871A2F75F6F0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{CC097BC5-472E-47DF-80C3-9361F38E0196}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{31CA84B2-A8D9-4657-9DD2-DE06AF91F5AD}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{588FAA60-FCD2-4231-8775-DC8DA11E20FC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{587DC3FC-0BF1-4256-9A96-0E2C0F09D9BE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FFF3CB8D-ECA7-4E8B-9037-97B426E8CFB3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B3778ED7-EB8A-47C1-993B-E1C4DB80FA85}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D207B888-C5C3-4ED8-8274-2FA720AF0E6D}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{7A366C4E-612E-4979-A8E2-2F222ED067D0}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{ABB0EA65-1F1F-4375-93DB-06ED211A04C0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{28BB50C0-BA74-4836-891F-0F4FB2222F3A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{202B71A8-5239-44A3-B7CE-22E20E5675B8}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{AE7297D6-A5FB-4CC2-BF34-FF4E3D55BED6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{07F132F4-55BC-4952-87A9-98EE2EAB822D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBE86C-758A-496D-8F79-C65577560523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8B31DF-DAC1-4C3F-A11C-DC6FFEE07B7D}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2662,17 +2662,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECEBB1F0-1485-42A1-97EA-B511DE01F2D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5277DAB-EE11-4626-95D3-7D5C203411A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00FD6438-6AFA-4A4F-BF7E-F63792DE9A89}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38DCDD87-9C5F-489F-8691-8CA03829AE6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{501FFB62-AE70-4F98-8E17-FC788B751F71}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AE3686B2-6E85-4BEF-A296-41CFF5B28DEA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E521DD4-0988-4D92-870C-8095933651B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CECA44B-66F2-4FE6-9723-33B85B268DB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{11D10DF6-C761-44AE-8C3F-28A3FF3FD587}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{71194011-A037-45D2-9DB2-5AE80381EA3B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D321AD0-F95D-4909-89D2-BEAF04C6F68B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D39AEE0-957F-4148-BE96-E9E369E112A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90420422-B8D9-473A-8087-07C1A6170183}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ACB9D722-90C3-4F1A-B341-95CFC3FFDB26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CD5332C-9055-4C62-A532-5138B9155C22}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2CF027E-1A1E-4383-A123-63CB2DE5470A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CE1DBA3-D8A9-4F8C-8549-702A9D5A4B69}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D1E08CF-AF56-4937-8B76-AF951FB88360}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD081525-0D70-4F17-AF1D-460D5798D08F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{399B2606-2596-446E-8176-3BAF292CDC27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{78F03302-F587-46C9-8189-D1C0D659780A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{857B0E4F-B51A-41DB-81E3-892DBC7AE3F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2685,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A9ED90-E65A-40C3-B357-AEDC671F362E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB6F254-0ED0-451A-9E5C-C6B19F714E02}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3967,17 +3967,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64CEE484-CA65-433F-B3A0-825C2AAC5C95}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBFA7003-1162-473F-8BF5-7FEA647C099A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAC04C62-FA27-41B9-ADB2-CE0BA4ADF614}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47307AE2-F300-47F8-8F52-572090744D36}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C30AFC39-D310-459A-BDB3-659256CF9B6A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E38091A-F9A3-46C4-A08C-DF5F2EDC5788}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A0F3D73-911E-4EC4-9FEB-FD8E90897EFF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29826663-2110-4605-B1FB-FDCB31D2A278}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3691C192-51C9-421D-8D31-D54716367494}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DA3278C3-E09A-4B55-8AA1-10131D29B222}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4C06A3F-1AD8-4D14-B823-A6215C3E9CB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD049ECA-5C17-4096-A28E-66F6A95B9F52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF1FE962-16CA-4412-BF53-D286EBCE6A1C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CC6F891-2132-4394-9939-B3C73FAB97D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DD9E2228-5B4D-4752-B121-BE2761D1FE77}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{486ABED7-AECD-4A69-84D6-B9A9BB16AC20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16C3B6C4-C037-476E-B638-724245B41E2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BD9499B-D925-4988-BD7D-35A2E7E05590}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAADC297-4D7F-4798-A4DB-B8D4DB5AAAAD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{312C68AD-7361-4998-BC15-3573B6F30FA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BCF96EAA-ED61-4AC7-B4C9-DC98D69E69FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{326C7E22-ED8F-428D-82E4-57DB03D526C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3990,7 +3990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F88240-F11E-4C55-8799-7E5CF08801B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1B38B7-3343-4574-9456-151AEFDE4B8F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5262,17 +5262,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{350F2E15-953E-44B1-B172-EB995CEF4E5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC371129-4EB4-4D04-A19F-B04708359214}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4B0207C-0D51-4265-8551-208336EB3B98}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{546F80E5-81A9-4E49-9D94-48F04C0E3A36}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8579066D-D5BD-4F33-BE5C-3F0D4931FC2B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92D7CD1D-7DD0-47B4-8EFE-89F709407EBB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B135C817-E9E9-4CB6-8142-557B7F70A85E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC3791FD-A31F-4747-BB0D-24E48B65C550}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{29B64548-B3B1-4BB7-97AC-CE58CE3ED21D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F0EF58D4-CDF3-475F-8D2A-9A871B04C02B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C0556EE-5C07-4B1F-A3CF-750EA8EFD5B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{952336DC-DB8F-4102-B521-D2057736A10A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32FBF014-0935-43C1-91AB-952E6C8BF81C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{74B4CDF6-1026-4C34-9B2E-51F0054E2B07}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4261E1C4-A32E-4BE2-B45D-DA86482350D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27F3C238-286A-4EC5-9337-E75E369A0B33}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D0C31D4-CFB6-4E74-9D8F-63DF7F4E03D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6B7E6E1-D29D-4CB4-9163-B461FFD28008}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A08AFC1E-0B22-42B4-9D89-5FD8CB51224F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0266AE8D-7EB0-448A-B7FB-B56CFDA26569}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0A269869-8B12-47A4-85C0-73B5666EA28E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B904599B-8514-4C6D-9B0D-A1E68DCADC76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5285,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892F44E6-46B8-46D2-A772-DD0453EE8D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB6E756-5AD4-4811-AC83-D03CD002DF8E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6557,17 +6557,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DE921E4-A84A-4B5D-BCDC-F59818C97E63}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AF3C477-4224-487D-87AA-CE1FA6F9B115}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CC6A3E92-12BE-46EC-9294-480A247E7613}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1704687F-5DAB-49C1-99EA-F9D8F27CBA9D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8A07B19-C860-4083-8057-B321A34E61BE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC0CE646-1B86-4A27-A280-24336BCCEB73}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{369AD5D3-8DED-4A4C-9BEE-B6F1808A9527}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3B58EAD-031F-4580-8A37-A313722DC806}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C43EC0AE-C1F9-4C91-A3C9-735DA75FDE13}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8AFB4F6D-E8BC-4C80-83ED-0D514B264E4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14D76345-3A13-4650-8AD3-8AF8FC6306C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{981702D1-B018-43FD-ADB8-8ACDA86D82C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E34EF3EC-8553-46BE-A725-EA4068B82EE7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EFADEAF0-109E-4A7F-8630-CADA65C0C0CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02892D2E-2448-42EE-AD53-E8345950EF9B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F321BFDF-4653-45DF-AFD7-6B327D041160}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6CDC892-7F82-4387-A6D0-71D14D3B864E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F018A4B4-EA36-4598-A2BB-BE86F787CC3C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2918D34D-6A66-46BD-8892-C7D96B4DDE73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B15E4EB8-94AD-47E5-A0A4-BF5229F7498D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{92CFF666-46BA-44EB-8487-61ED5829F021}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45F16D76-38F0-4D67-986F-DFEFF450F86D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6580,7 +6580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D54DC0-6350-4151-874F-8E7907F4DD0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD20B64-5713-49BE-ADFB-DB54F37C9928}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7865,17 +7865,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F95F45B-6A27-4EFC-B22F-AECDD01EDDA1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC011409-AD69-4F2F-AEFC-C586CE67D62C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B9B4F25-E700-47C7-AA43-68B390B3A5B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B3DB61D-562E-43C1-AA8B-FFBFCF07986F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD7FDEE8-440C-4F71-8DEC-76C91E3AB502}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{220A454D-D6DF-4A2F-AFB6-5CAFE42E48F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{169680CE-3A76-4C93-ABA8-2FFC9090A838}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2966226-9647-42BE-8922-A4FE8E26AB15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{896D83D6-8D96-4490-BA86-4B84AED02471}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E0311564-D2B0-4B49-B360-CAF77E17F804}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1410041B-E6EB-4A0B-AE0B-3984F78E7EA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2924ADA8-C70B-4B41-AEE0-C29AD8CA8020}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00803544-3280-4602-B7C0-EFD027E8B61C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10E5193F-4E39-48D6-A243-DAFD6BDD65AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C9D92BB2-786A-4A77-909D-C570372F75D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9181476-92F9-4974-B085-9856B7AF2F97}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6934BED1-F41A-4EAD-85AD-A3A73D66D880}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C515414-655D-4119-8BC9-10016CD6BD08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB562F31-C9F3-436B-9EC9-86C4A637539B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{04DFE7D1-6554-49FA-98B6-4ACDF52EC9C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{80601FE7-F187-4704-AEEF-B7612B2E193B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F27E1064-0064-41F4-937C-602DF4089E48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7888,7 +7888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8AC38-EAC8-4FDE-825E-606DCC634079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81E7D44-151F-432D-87F8-F6C9415CD50D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9173,17 +9173,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44834A47-D48F-4A27-A1AB-C09E12D0644C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52931006-C3D2-48C8-984F-911CFF459B96}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1FDA3EE-2AAA-4B63-AF81-C98531609DED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30519481-7558-44CB-B7A8-A4322C27A23E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53F1E02A-B14E-4082-9ACE-2343189EC9E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36C5ADBF-DDF2-4292-86C7-C304EBB15151}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0193C192-72DA-4218-98FA-9AFAC3F01268}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DBA2C81-2D07-4A66-93B4-F547FE8E44EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AC91275F-DE70-4B43-AD94-3EA83E270399}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{21395C8E-5B54-433E-A2E9-9EAD311A23B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA991A25-D8C5-459E-97B5-85F61DFC518C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4444EA39-5726-4AFD-9C8D-051269561BDB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{983E87BF-58E7-4323-A8F0-55EC872F1B35}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29C577EA-1455-4C7D-8E10-0EAABC9EC8F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7270C6C6-DF68-4178-B459-8B6190F6338D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FC17781-876A-4614-8E7C-F2BFF0D7815F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE2DE98E-34B4-4A36-81C1-69058E78E081}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D94D494B-7E12-47B6-8AE5-351294B157E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AE70A63-E94A-4F2A-9F78-4ED191D6C58D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1DD59D72-72B8-4467-B3B5-8C07FCB8F973}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0FE640A7-8C86-40B8-88A3-13ADEC76D913}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E890D9C-75E3-4BBC-91EF-17EC0A4A8AC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9196,7 +9196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845A88AE-8A6A-4638-9DE0-9B79E6F441DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188223FF-72A7-4536-A9D6-86604D708388}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10481,17 +10481,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A58BA3B5-0045-4C63-9482-125B8B64665B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA150346-9CFA-4628-A958-442DB90AAB48}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03D4457D-ACDE-49E0-A476-4C7D6E6A7151}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{222FAEE6-C38B-44DB-BA18-CAD6F10AB400}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{784C986F-E2A0-4AD9-BD91-8830134B919A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC5227F1-03AD-4868-8AE4-0EB16442611E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAB64FB4-CE9F-4B5F-A67A-B80D7209A33B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3633EF2E-8B8F-4318-9F8E-CFF15BD8B8FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{551AE223-82BD-4376-80F8-007BCBBB070A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{544F85A8-6FFD-48CA-9F46-247A62C5118E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC3670C2-B0C1-40D5-85EA-E92B3E707829}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BFC5F55-B237-4804-80DC-0D122C7F78F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03E6CDAB-C948-410A-A419-73542739614C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55997696-AADB-448E-930A-7D43470F1139}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6EEEBAF-E412-4EEC-BD73-A3DA905AD301}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{412B4FBD-B82D-4502-8E39-27E70E33C34D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{823F9FF9-3A36-4322-9417-7A2E49B50C0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C14AB1E2-275D-47F2-A7A9-1023A8D4205C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17D8F92C-E250-449C-9B86-854B2AB20E53}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{663A1FA2-92EF-408C-B139-45BAD818618F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5CC8A94B-9B8D-4FDC-8599-88EDDAE7BDA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7716CF60-28A9-4B26-9D53-9F573C27A7B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10504,7 +10504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D39C95-79DD-4041-860F-988647C33D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F086AE-514C-486C-8C56-92FC1C730D74}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11789,17 +11789,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8741D2EF-731A-4BBC-9DFC-71096FB1D59D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7646E64-3170-49EA-A5D0-E8626CDDAF80}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE84358A-FD84-41BB-ACED-D6588B0CAE95}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98348B67-F982-48AA-A666-1D24FC8E4B51}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DEA03C2-48B1-4820-B66C-F581B644ED20}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25688033-B045-499D-989D-A3EF528D2D05}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22DC1C33-045F-4DD0-A97A-93B278E3EE86}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC94C944-A6A7-40A4-9F62-61E227E2DBBD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{17BDE7A1-4F69-4230-8345-E1260607C773}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{430B44FC-3080-4E4A-BE19-D2CC34F82375}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC09CF5B-4240-415F-BEFD-7BCD0258B937}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57B60634-0DE3-45E5-99E1-5270B746B397}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48619631-6815-4ECC-8CA1-1FA2421D2826}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{651FCE23-A0BA-4441-A9B0-0FFCB5AC4A15}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB0B8D22-130F-4D66-A01D-F5293BEAFD45}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1D52DE7-9F69-4F93-BE6F-FD1389ED5A0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{462FAFA9-1918-4CE6-9681-35EB8445E27D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DAC4936-4ABB-4813-9979-1402EB3E8640}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD778FD9-D35E-425E-8954-61F2797F099D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{799858C3-A284-4286-A895-782F21721535}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8E62E0AB-7E89-4E55-854E-C2C1F4875811}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1963C8D-5197-4CC3-B511-E5C5506F9A48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11812,7 +11812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C6BB70-E831-4EC8-9277-05C639672E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D32123F-D12C-4D7D-82BC-FE4A7F054ABE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13097,17 +13097,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7E11F4A-827A-4BF2-8F78-49E1BF5D4363}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D35484F5-4BFB-4B8A-83F8-D12A0DBE4B06}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42E542B1-9AD9-40DE-A393-A300942657E2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5907C744-FDAC-41D5-BF32-C9C5FF7B624D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E13779CC-F334-4619-9601-E2C1769F7927}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEDB52DC-AEFD-4089-9C8B-3AFCE37C82C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17090320-AD28-49CE-9108-9DF71A13DEED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84459DD1-B9CC-4D17-AD34-57526CB7F99A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{26D02426-C8C4-49FD-8783-5A2ED75A9DA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3267AC85-9F15-4BC1-A9A9-F4B68C8F0EC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7844A9EE-DB9B-4DC9-BFD5-433CEEEE6C19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A147AAC-CC1F-40C5-94A9-B2C4CA5E07CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EBF6D73-23E6-423F-A7F7-A77F6230CED7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCAEBC51-D98B-48E9-A16C-D0DA4731DF07}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92EBABBF-C7DF-48F6-B6FA-7A9F9334F21A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DEE8C5C6-2673-4972-8DDB-B467AEA6B5EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17BFA2A8-9A2A-47BF-85A1-4FE08E878269}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E251B40A-17EF-42D3-92D1-3F436ECAEF3A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81EB779C-7EA0-4305-B8CB-9941F8531438}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B0636B3E-1008-4CE8-BDFA-95E057AFB8B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8300A08C-72F8-4EA8-98DC-02E32E834D0F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FFB4691-0DAF-4163-9666-1DD97CBFA0EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13120,7 +13120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5094A307-697C-4C32-BA7C-FED8A7703964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EA107F-2FA0-44A6-B349-57E776E3646E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14405,17 +14405,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13014F75-E06E-42C8-B8FF-7851E34E3FE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17021B35-094F-482D-8A70-81DA32DA3E31}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AEE48DAE-077B-49BB-8806-9B88AC0CA821}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFC30875-E38F-45EE-9BFD-EA4D5A55760A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA5FB3CA-B3BE-4B19-A235-26C80FBE3071}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{851478B3-271D-4030-B00C-8F56E8F7C2CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49A5CE45-3078-46B7-B2EF-23D288A7177E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9BAC511-5F86-4A81-955D-1BE8E4CB59E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0654B1FC-DEA8-44E4-8A33-5C4CB5B764E3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4ECBC315-5909-46FB-8F49-27BC73DC5D89}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5E778DD-AC58-44C2-BB8B-05096E92C3DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33D95276-4CF9-465E-AD23-79AA1BB84ADF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD09F28B-7BA6-404E-9329-15F9FF4560FA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22BEDAB7-A366-4894-B881-40D3CEE2EC33}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CF80AF1-C3FA-40C7-9E85-B233590F903E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0215BF2C-FD08-4FE7-8A92-F2A4781B792B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AA9DA69-B6E6-470E-A8B7-F2F598ADF45C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39AFBB82-8470-4C33-9CF5-5DB6DFDA9D32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23B7CBDD-DBA9-48E3-BDE7-92662D916157}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1A4909C1-BE67-42D3-BEE8-F9198C354331}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8490728B-437E-4908-833D-99A8DDA11092}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E14049E-AF46-407B-84BE-D2982CC0B701}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14428,7 +14428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A31BA3-51EC-4D59-B8DA-D6C32993C2C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190E2BA0-F669-4938-A8CD-6B5CCA1C62F9}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15714,17 +15714,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DB696B2-7A0B-4061-B3A7-B6ADBC70E5E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7BE894C-43EA-46A7-B3AE-79521604CC46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1CB65E0E-02FC-4A11-869D-802AC054BE4B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B165CDBF-1A9A-4FCF-9FFB-08F230267D47}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B980FBCA-3D14-4FE0-94F7-031EADFE79EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DABF004B-94B8-47CD-A8EE-EDCE9BE85A76}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56093E15-A74F-4E61-A3DA-C20A2FA4409E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F9B8A74-10AE-4CB7-967B-128691549DA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0F2E71C8-8E65-47A9-B684-D26ACE8AB90D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D336B0D6-D9B5-460D-B008-47327CDAEBBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E621991-E8DA-4B3B-8600-922FF897E794}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28CB56E7-39AD-46CA-A0D8-71D3F5505B9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46DF6AC4-027C-4282-8B78-9842CAA969C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9273BA8-5175-4435-BE4A-F0A15757152D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{00A2DA50-5C94-408A-B08F-A7172AEA8DC9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE3E55AA-3D0C-49D8-8E1B-11197389793A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7AE324B-62AE-4E44-9995-5B87700F28E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A6B368D-D55F-409B-B9FC-8BECD15118FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0467F289-F9C7-4D90-99CC-D4387417F968}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AD85892B-48EF-4C4E-B2BD-18EA94F7CCCA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D0FF6F9F-049D-44D8-9258-5486C0E10134}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04AA0501-1459-48A7-92B6-1A88CA2912A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15737,7 +15737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55671BBE-9CAF-410D-9700-824AAE043AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80244683-1DE4-4B11-ABF9-5D3099E4E3AC}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17023,17 +17023,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93F2110E-B8BC-4BBA-8538-DC7252A816E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F97EEBE-97AD-4C69-925C-64B5F7FA0F2E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B27F5444-B9F2-4B53-B51C-F28E5E198DB3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE2E0AA4-DA21-4F28-A484-4ABE4BBC50BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FBFE5AF-2F08-49D2-AF6E-18FABB3CED23}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77631401-7F94-4E28-A3F6-FDA20E6527E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78EFCA03-D481-4A6E-917F-01F23B078DA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E5F7FFB-1261-4FD8-8F5D-C4F2F849D4DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{244B2405-1E3A-4F0E-87C9-90657B3FDC79}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F586A9AC-854B-47D9-885E-FAAF343BBAF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{691CDA46-2C38-4BF9-9117-F519AE62D4DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97B0A7EE-C6A9-44E7-A81B-4428B04E572E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD90FBDE-10B1-4649-9903-24996617B2D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E892628C-183E-4C17-B9CC-C3B392C8E6DF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD2DE27A-705E-4D0A-8BAC-F7F3199C38FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0C1EF78-FA42-4DD0-B090-DA9B12C68091}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0F992BF-0F68-4BDB-BA02-D4A43234207A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA477697-C7C2-4662-82B4-CFB8DD6557B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59D2D3C2-CF81-4DF2-8E54-6D76167A280F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{046D1E7D-A082-4AE0-BA6E-BFEBBC89448F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{87D1368B-6094-451B-92FB-CF00228FD8C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0473E861-471F-4D53-8547-558987A535B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
